--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Clcf1-Crlf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H2">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I2">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J2">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.3448526666666667</v>
+        <v>0.1153933333333333</v>
       </c>
       <c r="N2">
-        <v>1.034558</v>
+        <v>0.34618</v>
       </c>
       <c r="O2">
-        <v>0.02513720817446796</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="P2">
-        <v>0.02513720817446796</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="Q2">
-        <v>0.2104742728993333</v>
+        <v>0.2028913284088888</v>
       </c>
       <c r="R2">
-        <v>1.894268456094</v>
+        <v>1.82602195568</v>
       </c>
       <c r="S2">
-        <v>0.001523238585933203</v>
+        <v>0.0008259439343888998</v>
       </c>
       <c r="T2">
-        <v>0.001523238585933203</v>
+        <v>0.0008259439343888999</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H3">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I3">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J3">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>24.288271</v>
       </c>
       <c r="O3">
-        <v>0.5901450902944959</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="P3">
-        <v>0.5901450902944958</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="Q3">
-        <v>4.941294909233667</v>
+        <v>14.23502099469956</v>
       </c>
       <c r="R3">
-        <v>44.471654183103</v>
+        <v>128.115188952296</v>
       </c>
       <c r="S3">
-        <v>0.03576100283676935</v>
+        <v>0.05794889973205795</v>
       </c>
       <c r="T3">
-        <v>0.03576100283676933</v>
+        <v>0.05794889973205795</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.610331</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H4">
-        <v>1.830993</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I4">
-        <v>0.06059696746595619</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J4">
-        <v>0.06059696746595618</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.277870333333333</v>
+        <v>7.447211</v>
       </c>
       <c r="N4">
-        <v>15.833611</v>
+        <v>22.341633</v>
       </c>
       <c r="O4">
-        <v>0.3847177015310362</v>
+        <v>0.4707711468470205</v>
       </c>
       <c r="P4">
-        <v>0.3847177015310361</v>
+        <v>0.4707711468470205</v>
       </c>
       <c r="Q4">
-        <v>3.221247878413666</v>
+        <v>13.09412328324533</v>
       </c>
       <c r="R4">
-        <v>28.99123090572299</v>
+        <v>117.847109549208</v>
       </c>
       <c r="S4">
-        <v>0.02331272604325364</v>
+        <v>0.05330445508317315</v>
       </c>
       <c r="T4">
-        <v>0.02331272604325364</v>
+        <v>0.05330445508317316</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.690388333333333</v>
+        <v>1.758258666666666</v>
       </c>
       <c r="H5">
-        <v>8.071165000000001</v>
+        <v>5.274775999999999</v>
       </c>
       <c r="I5">
-        <v>0.2671163259047765</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="J5">
-        <v>0.2671163259047764</v>
+        <v>0.1132279568112417</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.3448526666666667</v>
+        <v>0.16048</v>
       </c>
       <c r="N5">
-        <v>1.034558</v>
+        <v>0.48144</v>
       </c>
       <c r="O5">
-        <v>0.02513720817446796</v>
+        <v>0.01014465061430512</v>
       </c>
       <c r="P5">
-        <v>0.02513720817446796</v>
+        <v>0.01014465061430512</v>
       </c>
       <c r="Q5">
-        <v>0.927787591118889</v>
+        <v>0.2821653508266666</v>
       </c>
       <c r="R5">
-        <v>8.350088320070002</v>
+        <v>2.53948815744</v>
       </c>
       <c r="S5">
-        <v>0.006714558691067394</v>
+        <v>0.001148658061621676</v>
       </c>
       <c r="T5">
-        <v>0.006714558691067393</v>
+        <v>0.001148658061621677</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>8.071165000000001</v>
       </c>
       <c r="I6">
-        <v>0.2671163259047765</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J6">
-        <v>0.2671163259047764</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>8.096090333333334</v>
+        <v>0.1153933333333333</v>
       </c>
       <c r="N6">
-        <v>24.288271</v>
+        <v>0.34618</v>
       </c>
       <c r="O6">
-        <v>0.5901450902944959</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="P6">
-        <v>0.5901450902944958</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="Q6">
-        <v>21.78162697841278</v>
+        <v>0.3104528777444445</v>
       </c>
       <c r="R6">
-        <v>196.034642805715</v>
+        <v>2.7940758997</v>
       </c>
       <c r="S6">
-        <v>0.1576373882702083</v>
+        <v>0.00126381286621498</v>
       </c>
       <c r="T6">
-        <v>0.1576373882702082</v>
+        <v>0.00126381286621498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>8.071165000000001</v>
       </c>
       <c r="I7">
-        <v>0.2671163259047765</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J7">
-        <v>0.2671163259047764</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.277870333333333</v>
+        <v>8.096090333333334</v>
       </c>
       <c r="N7">
-        <v>15.833611</v>
+        <v>24.288271</v>
       </c>
       <c r="O7">
-        <v>0.3847177015310362</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="P7">
-        <v>0.3847177015310361</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="Q7">
-        <v>14.19952076964611</v>
+        <v>21.78162697841278</v>
       </c>
       <c r="R7">
-        <v>127.795686926815</v>
+        <v>196.034642805715</v>
       </c>
       <c r="S7">
-        <v>0.1027643789435008</v>
+        <v>0.08867014093222074</v>
       </c>
       <c r="T7">
-        <v>0.1027643789435007</v>
+        <v>0.08867014093222074</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.522893333333333</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H8">
-        <v>16.56868</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I8">
-        <v>0.5483427642344013</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J8">
-        <v>0.5483427642344012</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.3448526666666667</v>
+        <v>7.447211</v>
       </c>
       <c r="N8">
-        <v>1.034558</v>
+        <v>22.341633</v>
       </c>
       <c r="O8">
-        <v>0.02513720817446796</v>
+        <v>0.4707711468470205</v>
       </c>
       <c r="P8">
-        <v>0.02513720817446796</v>
+        <v>0.4707711468470205</v>
       </c>
       <c r="Q8">
-        <v>1.904584493715556</v>
+        <v>20.03588959027167</v>
       </c>
       <c r="R8">
-        <v>17.14126044344</v>
+        <v>180.323006312445</v>
       </c>
       <c r="S8">
-        <v>0.01378380621552335</v>
+        <v>0.08156347344633767</v>
       </c>
       <c r="T8">
-        <v>0.01378380621552335</v>
+        <v>0.08156347344633769</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.522893333333333</v>
+        <v>2.690388333333333</v>
       </c>
       <c r="H9">
-        <v>16.56868</v>
+        <v>8.071165000000001</v>
       </c>
       <c r="I9">
-        <v>0.5483427642344013</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="J9">
-        <v>0.5483427642344012</v>
+        <v>0.1732550390834427</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>8.096090333333334</v>
+        <v>0.16048</v>
       </c>
       <c r="N9">
-        <v>24.288271</v>
+        <v>0.48144</v>
       </c>
       <c r="O9">
-        <v>0.5901450902944959</v>
+        <v>0.01014465061430512</v>
       </c>
       <c r="P9">
-        <v>0.5901450902944958</v>
+        <v>0.01014465061430512</v>
       </c>
       <c r="Q9">
-        <v>44.71384332803112</v>
+        <v>0.4317535197333333</v>
       </c>
       <c r="R9">
-        <v>402.42458995228</v>
+        <v>3.8857816776</v>
       </c>
       <c r="S9">
-        <v>0.3236017901114442</v>
+        <v>0.001757611838669304</v>
       </c>
       <c r="T9">
-        <v>0.3236017901114441</v>
+        <v>0.001757611838669305</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.522893333333333</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H10">
-        <v>16.56868</v>
+        <v>29.814935</v>
       </c>
       <c r="I10">
-        <v>0.5483427642344013</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J10">
-        <v>0.5483427642344012</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>5.277870333333333</v>
+        <v>0.1153933333333333</v>
       </c>
       <c r="N10">
-        <v>15.833611</v>
+        <v>0.34618</v>
       </c>
       <c r="O10">
-        <v>0.3847177015310362</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="P10">
-        <v>0.3847177015310361</v>
+        <v>0.007294522992813531</v>
       </c>
       <c r="Q10">
-        <v>29.14911487816444</v>
+        <v>1.146814910922222</v>
       </c>
       <c r="R10">
-        <v>262.3420339034799</v>
+        <v>10.3213341983</v>
       </c>
       <c r="S10">
-        <v>0.2109571679074337</v>
+        <v>0.004668532790292767</v>
       </c>
       <c r="T10">
-        <v>0.2109571679074337</v>
+        <v>0.004668532790292767</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.24836</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H11">
-        <v>3.74508</v>
+        <v>29.814935</v>
       </c>
       <c r="I11">
-        <v>0.1239439423948662</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J11">
-        <v>0.1239439423948662</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.3448526666666667</v>
+        <v>8.096090333333334</v>
       </c>
       <c r="N11">
-        <v>1.034558</v>
+        <v>24.288271</v>
       </c>
       <c r="O11">
-        <v>0.02513720817446796</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="P11">
-        <v>0.02513720817446796</v>
+        <v>0.5117896795458609</v>
       </c>
       <c r="Q11">
-        <v>0.43050027496</v>
+        <v>80.46146901415391</v>
       </c>
       <c r="R11">
-        <v>3.87450247464</v>
+        <v>724.1532211273851</v>
       </c>
       <c r="S11">
-        <v>0.003115604681944016</v>
+        <v>0.3275480662748192</v>
       </c>
       <c r="T11">
-        <v>0.003115604681944015</v>
+        <v>0.3275480662748191</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.24836</v>
+        <v>9.938311666666667</v>
       </c>
       <c r="H12">
-        <v>3.74508</v>
+        <v>29.814935</v>
       </c>
       <c r="I12">
-        <v>0.1239439423948662</v>
+        <v>0.6400052196548212</v>
       </c>
       <c r="J12">
-        <v>0.1239439423948662</v>
+        <v>0.640005219654821</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.096090333333334</v>
+        <v>7.447211</v>
       </c>
       <c r="N12">
-        <v>24.288271</v>
+        <v>22.341633</v>
       </c>
       <c r="O12">
-        <v>0.5901450902944959</v>
+        <v>0.4707711468470205</v>
       </c>
       <c r="P12">
-        <v>0.5901450902944958</v>
+        <v>0.4707711468470205</v>
       </c>
       <c r="Q12">
-        <v>10.10683532852</v>
+        <v>74.01270396542834</v>
       </c>
       <c r="R12">
-        <v>90.96151795668</v>
+        <v>666.1143356888551</v>
       </c>
       <c r="S12">
-        <v>0.0731449090760741</v>
+        <v>0.3012959912449794</v>
       </c>
       <c r="T12">
-        <v>0.07314490907607407</v>
+        <v>0.3012959912449794</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.938311666666667</v>
+      </c>
+      <c r="H13">
+        <v>29.814935</v>
+      </c>
+      <c r="I13">
+        <v>0.6400052196548212</v>
+      </c>
+      <c r="J13">
+        <v>0.640005219654821</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.16048</v>
+      </c>
+      <c r="N13">
+        <v>0.48144</v>
+      </c>
+      <c r="O13">
+        <v>0.01014465061430512</v>
+      </c>
+      <c r="P13">
+        <v>0.01014465061430512</v>
+      </c>
+      <c r="Q13">
+        <v>1.594900256266667</v>
+      </c>
+      <c r="R13">
+        <v>14.3541023064</v>
+      </c>
+      <c r="S13">
+        <v>0.006492629344729764</v>
+      </c>
+      <c r="T13">
+        <v>0.006492629344729764</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.141526666666667</v>
+      </c>
+      <c r="H14">
+        <v>3.42458</v>
+      </c>
+      <c r="I14">
+        <v>0.0735117844504946</v>
+      </c>
+      <c r="J14">
+        <v>0.07351178445049458</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1153933333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.34618</v>
+      </c>
+      <c r="O14">
+        <v>0.007294522992813531</v>
+      </c>
+      <c r="P14">
+        <v>0.007294522992813531</v>
+      </c>
+      <c r="Q14">
+        <v>0.1317245671555556</v>
+      </c>
+      <c r="R14">
+        <v>1.1855211044</v>
+      </c>
+      <c r="S14">
+        <v>0.000536233401916885</v>
+      </c>
+      <c r="T14">
+        <v>0.000536233401916885</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.141526666666667</v>
+      </c>
+      <c r="H15">
+        <v>3.42458</v>
+      </c>
+      <c r="I15">
+        <v>0.0735117844504946</v>
+      </c>
+      <c r="J15">
+        <v>0.07351178445049458</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>8.096090333333334</v>
+      </c>
+      <c r="N15">
+        <v>24.288271</v>
+      </c>
+      <c r="O15">
+        <v>0.5117896795458609</v>
+      </c>
+      <c r="P15">
+        <v>0.5117896795458609</v>
+      </c>
+      <c r="Q15">
+        <v>9.241903011242222</v>
+      </c>
+      <c r="R15">
+        <v>83.17712710118001</v>
+      </c>
+      <c r="S15">
+        <v>0.03762257260676303</v>
+      </c>
+      <c r="T15">
+        <v>0.03762257260676302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.24836</v>
-      </c>
-      <c r="H13">
-        <v>3.74508</v>
-      </c>
-      <c r="I13">
-        <v>0.1239439423948662</v>
-      </c>
-      <c r="J13">
-        <v>0.1239439423948662</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>5.277870333333333</v>
-      </c>
-      <c r="N13">
-        <v>15.833611</v>
-      </c>
-      <c r="O13">
-        <v>0.3847177015310362</v>
-      </c>
-      <c r="P13">
-        <v>0.3847177015310361</v>
-      </c>
-      <c r="Q13">
-        <v>6.588682209319998</v>
-      </c>
-      <c r="R13">
-        <v>59.29813988387999</v>
-      </c>
-      <c r="S13">
-        <v>0.04768342863684807</v>
-      </c>
-      <c r="T13">
-        <v>0.04768342863684805</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.141526666666667</v>
+      </c>
+      <c r="H16">
+        <v>3.42458</v>
+      </c>
+      <c r="I16">
+        <v>0.0735117844504946</v>
+      </c>
+      <c r="J16">
+        <v>0.07351178445049458</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>7.447211</v>
+      </c>
+      <c r="N16">
+        <v>22.341633</v>
+      </c>
+      <c r="O16">
+        <v>0.4707711468470205</v>
+      </c>
+      <c r="P16">
+        <v>0.4707711468470205</v>
+      </c>
+      <c r="Q16">
+        <v>8.501189948793334</v>
+      </c>
+      <c r="R16">
+        <v>76.51070953914</v>
+      </c>
+      <c r="S16">
+        <v>0.03460722707253031</v>
+      </c>
+      <c r="T16">
+        <v>0.03460722707253031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.141526666666667</v>
+      </c>
+      <c r="H17">
+        <v>3.42458</v>
+      </c>
+      <c r="I17">
+        <v>0.0735117844504946</v>
+      </c>
+      <c r="J17">
+        <v>0.07351178445049458</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.16048</v>
+      </c>
+      <c r="N17">
+        <v>0.48144</v>
+      </c>
+      <c r="O17">
+        <v>0.01014465061430512</v>
+      </c>
+      <c r="P17">
+        <v>0.01014465061430512</v>
+      </c>
+      <c r="Q17">
+        <v>0.1831921994666666</v>
+      </c>
+      <c r="R17">
+        <v>1.6487297952</v>
+      </c>
+      <c r="S17">
+        <v>0.0007457513692843754</v>
+      </c>
+      <c r="T17">
+        <v>0.0007457513692843754</v>
       </c>
     </row>
   </sheetData>
